--- a/RAS 전처리 SAM/미시 사회계정행렬(최종) RAS 적용.xlsx
+++ b/RAS 전처리 SAM/미시 사회계정행렬(최종) RAS 적용.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/RAS 전처리 SAM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7886FA-7A5C-C24B-862A-E85D388358C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC12103-732A-C64C-BB84-87DDCCDE0ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35580" yWindow="-40" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
     <t>자본</t>
   </si>
   <si>
-    <t>SCT 자본</t>
+    <t>SIT 자본</t>
   </si>
   <si>
     <t>가계</t>
@@ -118,7 +118,7 @@
     <t>고정자본형성</t>
   </si>
   <si>
-    <t>SCT 고정자본형성</t>
+    <t>SIT 고정자본형성</t>
   </si>
   <si>
     <t>간접세</t>
@@ -148,7 +148,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -557,11 +557,12 @@
     <col min="23" max="24" width="12" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
     <col min="26" max="29" width="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
     <col min="32" max="34" width="11" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="13" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -679,67 +680,67 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>4474.1108397786948</v>
+        <v>4474.1716407348513</v>
       </c>
       <c r="C2" s="2">
-        <v>4.3190430538940801</v>
+        <v>4.3191000903256933</v>
       </c>
       <c r="D2" s="2">
-        <v>39054.645551333393</v>
+        <v>39055.067487714638</v>
       </c>
       <c r="E2" s="2">
-        <v>49.062164727922116</v>
+        <v>49.062825731187907</v>
       </c>
       <c r="F2" s="2">
-        <v>10.347507880201221</v>
+        <v>10.347644976850381</v>
       </c>
       <c r="G2" s="2">
-        <v>381.17151220254812</v>
+        <v>381.17598382467997</v>
       </c>
       <c r="H2" s="2">
-        <v>21.056930310788069</v>
+        <v>21.057265188405289</v>
       </c>
       <c r="I2" s="2">
-        <v>9464.8667610740285</v>
+        <v>9464.9728865492816</v>
       </c>
       <c r="J2" s="2">
-        <v>19.217875208538189</v>
+        <v>19.21809573028295</v>
       </c>
       <c r="K2" s="2">
-        <v>36.075147235280518</v>
+        <v>36.075574644068197</v>
       </c>
       <c r="L2" s="2">
-        <v>8.7584298132834224</v>
+        <v>8.758533111535673</v>
       </c>
       <c r="M2" s="2">
-        <v>281.98359282416362</v>
+        <v>281.98731152473289</v>
       </c>
       <c r="N2" s="2">
-        <v>290.95099335859862</v>
+        <v>290.95439791559693</v>
       </c>
       <c r="O2" s="2">
-        <v>89.932858737786503</v>
+        <v>89.933979773411323</v>
       </c>
       <c r="P2" s="2">
-        <v>1150.080613695593</v>
+        <v>1150.09611494398</v>
       </c>
       <c r="Q2" s="2">
-        <v>203.49218723626541</v>
+        <v>203.50240439385499</v>
       </c>
       <c r="R2" s="2">
-        <v>2.0257829589400762</v>
+        <v>2.0258056446046671</v>
       </c>
       <c r="S2" s="2">
-        <v>30.191689853673029</v>
+        <v>30.192097336028201</v>
       </c>
       <c r="T2" s="2">
-        <v>3.13489489374457</v>
+        <v>3.1349328983168379</v>
       </c>
       <c r="U2" s="2">
-        <v>136.05648272367341</v>
+        <v>136.0582921628357</v>
       </c>
       <c r="V2" s="2">
-        <v>5.1956778925598073</v>
+        <v>5.195725682426187</v>
       </c>
       <c r="W2" s="2">
         <v>0</v>
@@ -751,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Z2" s="2">
-        <v>17878.635747079741</v>
+        <v>17877.98397382459</v>
       </c>
       <c r="AA2" s="2">
         <v>0</v>
@@ -760,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="2">
-        <v>384.44922559138769</v>
+        <v>384.46051526668123</v>
       </c>
       <c r="AD2" s="2">
         <v>0</v>
@@ -778,14 +779,14 @@
         <v>0</v>
       </c>
       <c r="AI2" s="2">
-        <v>1079.6494905353011</v>
+        <v>1079.6584103368509</v>
       </c>
       <c r="AJ2" s="2">
         <v>0</v>
       </c>
       <c r="AK2" s="2">
-        <f>SUM(B2:AJ2)</f>
-        <v>75059.411000000022</v>
+        <f>SUM( B2:AJ2)</f>
+        <v>75059.411000000007</v>
       </c>
       <c r="AL2" s="2"/>
     </row>
@@ -794,28 +795,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>0.5600904046358921</v>
+        <v>0.56009148814459941</v>
       </c>
       <c r="C3" s="2">
-        <v>2.1798532755338509</v>
+        <v>2.1798566561072219</v>
       </c>
       <c r="D3" s="2">
-        <v>110855.648345918</v>
+        <v>110855.55398501809</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>37690.143300217969</v>
+        <v>37690.203388328177</v>
       </c>
       <c r="G3" s="2">
-        <v>293.94610750225121</v>
+        <v>293.94612993044768</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>4.1982999962395189</v>
+        <v>4.1982981389777043</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
@@ -824,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>0.1274621400957065</v>
+        <v>0.1274621578373607</v>
       </c>
       <c r="M3" s="2">
-        <v>23.074852737218212</v>
+        <v>23.074888103400632</v>
       </c>
       <c r="N3" s="2">
-        <v>5.391601754476449</v>
+        <v>5.3916020052930751</v>
       </c>
       <c r="O3" s="2">
-        <v>9.6007376665019753E-2</v>
+        <v>9.6007454458107155E-2</v>
       </c>
       <c r="P3" s="2">
-        <v>8.6428778269444599</v>
+        <v>8.6428935865542265</v>
       </c>
       <c r="Q3" s="2">
-        <v>2.0812193844880178</v>
+        <v>2.0812996231585279</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -851,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="2">
-        <v>0.5721972240227432</v>
+        <v>0.57219816482852193</v>
       </c>
       <c r="V3" s="2">
         <v>0</v>
@@ -866,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Z3" s="2">
-        <v>15.256688696393811</v>
+        <v>15.255954699807999</v>
       </c>
       <c r="AA3" s="2">
         <v>0</v>
@@ -875,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="2">
-        <v>1989.296571272137</v>
+        <v>1989.331803061157</v>
       </c>
       <c r="AD3" s="2">
         <v>0</v>
@@ -893,14 +894,14 @@
         <v>0</v>
       </c>
       <c r="AI3" s="2">
-        <v>112.7825242730428</v>
+        <v>112.78214158362</v>
       </c>
       <c r="AJ3" s="2">
         <v>0</v>
       </c>
       <c r="AK3" s="2">
-        <f>SUM(B3:AJ3)</f>
-        <v>151003.99800000008</v>
+        <f t="shared" ref="AK3:AK36" si="0">SUM( B3:AJ3)</f>
+        <v>151003.99800000002</v>
       </c>
       <c r="AL3" s="2"/>
     </row>
@@ -909,67 +910,67 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>17757.210987457049</v>
+        <v>17757.3156377511</v>
       </c>
       <c r="C4" s="2">
-        <v>659.63902949410124</v>
+        <v>659.64266390523403</v>
       </c>
       <c r="D4" s="2">
-        <v>839641.27368666418</v>
+        <v>839643.88300302986</v>
       </c>
       <c r="E4" s="2">
-        <v>12865.09143123287</v>
+        <v>12865.165748517589</v>
       </c>
       <c r="F4" s="2">
-        <v>13871.10544158393</v>
+        <v>13871.18246973116</v>
       </c>
       <c r="G4" s="2">
-        <v>103280.1594813992</v>
+        <v>103280.5762339197</v>
       </c>
       <c r="H4" s="2">
-        <v>41850.06168998401</v>
+        <v>41850.40516652634</v>
       </c>
       <c r="I4" s="2">
-        <v>58677.612432302281</v>
+        <v>58677.81877087491</v>
       </c>
       <c r="J4" s="2">
-        <v>8208.9298476393815</v>
+        <v>8208.9608669831796</v>
       </c>
       <c r="K4" s="2">
-        <v>4035.9791531070782</v>
+        <v>4035.995909037495</v>
       </c>
       <c r="L4" s="2">
-        <v>3781.578848321165</v>
+        <v>3781.5943454460171</v>
       </c>
       <c r="M4" s="2">
-        <v>33528.556050334548</v>
+        <v>33528.740173835788</v>
       </c>
       <c r="N4" s="2">
-        <v>9884.2560158561118</v>
+        <v>9884.2956061042678</v>
       </c>
       <c r="O4" s="2">
-        <v>7974.5274919582507</v>
+        <v>7974.5655236783041</v>
       </c>
       <c r="P4" s="2">
-        <v>39909.549332701499</v>
+        <v>39909.780101427546</v>
       </c>
       <c r="Q4" s="2">
-        <v>24622.630394467109</v>
+        <v>24623.677168951461</v>
       </c>
       <c r="R4" s="2">
-        <v>9484.1352236964794</v>
+        <v>9484.1684407123739</v>
       </c>
       <c r="S4" s="2">
-        <v>7916.8714341271952</v>
+        <v>7916.9173551385202</v>
       </c>
       <c r="T4" s="2">
-        <v>2532.6924949388131</v>
+        <v>2532.7037071160762</v>
       </c>
       <c r="U4" s="2">
-        <v>2418.181173474386</v>
+        <v>2418.194722711854</v>
       </c>
       <c r="V4" s="2">
-        <v>300.4936747966878</v>
+        <v>300.49412611681032</v>
       </c>
       <c r="W4" s="2">
         <v>0</v>
@@ -981,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Z4" s="2">
-        <v>213613.00251513041</v>
+        <v>213603.57125577089</v>
       </c>
       <c r="AA4" s="2">
         <v>0</v>
@@ -990,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="2">
-        <v>163243.82648237521</v>
+        <v>163247.36391272079</v>
       </c>
       <c r="AD4" s="2">
         <v>0</v>
@@ -1008,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="AI4" s="2">
-        <v>621194.93731765798</v>
+        <v>621195.28872069262</v>
       </c>
       <c r="AJ4" s="2">
         <v>0</v>
       </c>
       <c r="AK4" s="2">
-        <f t="shared" ref="AK3:AK36" si="0">SUM(B4:AJ4)</f>
+        <f t="shared" si="0"/>
         <v>2241252.3016307</v>
       </c>
       <c r="AL4" s="2"/>
@@ -1024,67 +1025,67 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>1436.368474588279</v>
+        <v>1436.391287919688</v>
       </c>
       <c r="C5" s="2">
-        <v>35.209812490066483</v>
+        <v>35.210358204896373</v>
       </c>
       <c r="D5" s="2">
-        <v>43188.940263157419</v>
+        <v>43189.50590339108</v>
       </c>
       <c r="E5" s="2">
-        <v>4423.8212462145684</v>
+        <v>4423.8909917795436</v>
       </c>
       <c r="F5" s="2">
-        <v>745.92987766642091</v>
+        <v>745.94147119357103</v>
       </c>
       <c r="G5" s="2">
-        <v>5127.5711793890596</v>
+        <v>5127.6430904744948</v>
       </c>
       <c r="H5" s="2">
-        <v>1776.1735020574499</v>
+        <v>1776.2058223484421</v>
       </c>
       <c r="I5" s="2">
-        <v>8462.0913707722793</v>
+        <v>8462.2056572693109</v>
       </c>
       <c r="J5" s="2">
-        <v>5042.7584940386514</v>
+        <v>5042.8279225317983</v>
       </c>
       <c r="K5" s="2">
-        <v>586.57687853395316</v>
+        <v>586.58517324172669</v>
       </c>
       <c r="L5" s="2">
-        <v>383.13568753362972</v>
+        <v>383.14108487618142</v>
       </c>
       <c r="M5" s="2">
-        <v>3223.4791949937771</v>
+        <v>3223.529096989801</v>
       </c>
       <c r="N5" s="2">
-        <v>1030.942348382222</v>
+        <v>1030.9567760229029</v>
       </c>
       <c r="O5" s="2">
-        <v>1203.076155021851</v>
+        <v>1203.093910486092</v>
       </c>
       <c r="P5" s="2">
-        <v>7100.844327521555</v>
+        <v>7100.9563187784061</v>
       </c>
       <c r="Q5" s="2">
-        <v>3085.3285565699548</v>
+        <v>3085.4905434579</v>
       </c>
       <c r="R5" s="2">
-        <v>664.55735694801535</v>
+        <v>664.56632289109461</v>
       </c>
       <c r="S5" s="2">
-        <v>2722.3144305694909</v>
+        <v>2722.3574149517772</v>
       </c>
       <c r="T5" s="2">
-        <v>297.02441195284479</v>
+        <v>297.02869392010302</v>
       </c>
       <c r="U5" s="2">
-        <v>276.72806291036949</v>
+        <v>276.73237774157627</v>
       </c>
       <c r="V5" s="2">
-        <v>45.600904978166177</v>
+        <v>45.601428984255762</v>
       </c>
       <c r="W5" s="2">
         <v>0</v>
@@ -1096,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="2">
-        <v>56390.832817224087</v>
+        <v>56388.906371055957</v>
       </c>
       <c r="AA5" s="2">
         <v>0</v>
@@ -1105,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="2">
-        <v>9518.1223133700569</v>
+        <v>9518.4236477751783</v>
       </c>
       <c r="AD5" s="2">
         <v>0</v>
@@ -1123,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="AI5" s="2">
-        <v>22359.373574115842</v>
+        <v>22359.60957471421</v>
       </c>
       <c r="AJ5" s="2">
         <v>0</v>
@@ -1139,67 +1140,67 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>915.53845513791782</v>
+        <v>915.53491818471787</v>
       </c>
       <c r="C6" s="2">
-        <v>108.5838393010761</v>
+        <v>108.5833781514246</v>
       </c>
       <c r="D6" s="2">
-        <v>38002.909307081383</v>
+        <v>38002.656627148222</v>
       </c>
       <c r="E6" s="2">
-        <v>2400.6612861766498</v>
+        <v>2400.6517315853739</v>
       </c>
       <c r="F6" s="2">
-        <v>16188.164981104001</v>
+        <v>16188.096934055389</v>
       </c>
       <c r="G6" s="2">
-        <v>1054.2736172785169</v>
+        <v>1054.267585291308</v>
       </c>
       <c r="H6" s="2">
-        <v>2606.6814722793429</v>
+        <v>2606.6774336015342</v>
       </c>
       <c r="I6" s="2">
-        <v>5161.5821235955764</v>
+        <v>5161.5499145781114</v>
       </c>
       <c r="J6" s="2">
-        <v>1263.227476108508</v>
+        <v>1263.219924668774</v>
       </c>
       <c r="K6" s="2">
-        <v>1435.863462198603</v>
+        <v>1435.855414198656</v>
       </c>
       <c r="L6" s="2">
-        <v>3113.3077288508639</v>
+        <v>3113.290111975216</v>
       </c>
       <c r="M6" s="2">
-        <v>8318.832350022225</v>
+        <v>8318.7968693748426</v>
       </c>
       <c r="N6" s="2">
-        <v>1856.45750213111</v>
+        <v>1856.446825192802</v>
       </c>
       <c r="O6" s="2">
-        <v>3970.6990604205262</v>
+        <v>3970.679256618726</v>
       </c>
       <c r="P6" s="2">
-        <v>5150.9556434541837</v>
+        <v>5150.9351717450581</v>
       </c>
       <c r="Q6" s="2">
-        <v>2657.423014149002</v>
+        <v>2657.5100598891809</v>
       </c>
       <c r="R6" s="2">
-        <v>192.5440039413939</v>
+        <v>192.54279972382849</v>
       </c>
       <c r="S6" s="2">
-        <v>1477.3098863025839</v>
+        <v>1477.304041700482</v>
       </c>
       <c r="T6" s="2">
-        <v>162.16510359545359</v>
+        <v>162.16423931178991</v>
       </c>
       <c r="U6" s="2">
-        <v>566.7968704295597</v>
+        <v>566.79451619695658</v>
       </c>
       <c r="V6" s="2">
-        <v>46.362336086469838</v>
+        <v>46.36195338047655</v>
       </c>
       <c r="W6" s="2">
         <v>0</v>
@@ -1211,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="Z6" s="2">
-        <v>22595.95420515196</v>
+        <v>22594.73611812829</v>
       </c>
       <c r="AA6" s="2">
         <v>0</v>
       </c>
       <c r="AB6" s="2">
-        <v>1008.393546546622</v>
+        <v>1010.041620319585</v>
       </c>
       <c r="AC6" s="2">
         <v>0</v>
@@ -1238,14 +1239,14 @@
         <v>0</v>
       </c>
       <c r="AI6" s="2">
-        <v>1106.9287286565229</v>
+        <v>1106.918554979294</v>
       </c>
       <c r="AJ6" s="2">
         <v>0</v>
       </c>
       <c r="AK6" s="2">
         <f t="shared" si="0"/>
-        <v>121361.61600000005</v>
+        <v>121361.61600000002</v>
       </c>
       <c r="AL6" s="2"/>
     </row>
@@ -1254,67 +1255,67 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>81.811171680162317</v>
+        <v>81.809954629826663</v>
       </c>
       <c r="C7" s="2">
-        <v>16.647890308842939</v>
+        <v>16.647636261597849</v>
       </c>
       <c r="D7" s="2">
-        <v>1208.3827424789861</v>
+        <v>1208.361400002133</v>
       </c>
       <c r="E7" s="2">
-        <v>187.46889527289869</v>
+        <v>187.46608453922099</v>
       </c>
       <c r="F7" s="2">
-        <v>540.15737922669257</v>
+        <v>540.14915987476923</v>
       </c>
       <c r="G7" s="2">
-        <v>87.393525737743744</v>
+        <v>87.392063248399381</v>
       </c>
       <c r="H7" s="2">
-        <v>216.2708018568857</v>
+        <v>216.26808496215401</v>
       </c>
       <c r="I7" s="2">
-        <v>338.07977509418231</v>
+        <v>338.07394213511611</v>
       </c>
       <c r="J7" s="2">
-        <v>231.53877922616721</v>
+        <v>231.53484516104959</v>
       </c>
       <c r="K7" s="2">
-        <v>92.381720819710466</v>
+        <v>92.380185615137464</v>
       </c>
       <c r="L7" s="2">
-        <v>9197.7326917448336</v>
+        <v>9197.5793504824305</v>
       </c>
       <c r="M7" s="2">
-        <v>678.95125300357324</v>
+        <v>678.94087986405236</v>
       </c>
       <c r="N7" s="2">
-        <v>833.02405139012637</v>
+        <v>833.01008631892535</v>
       </c>
       <c r="O7" s="2">
-        <v>176.29024802615029</v>
+        <v>176.28742728387761</v>
       </c>
       <c r="P7" s="2">
-        <v>115.0343584751282</v>
+        <v>115.0326344051003</v>
       </c>
       <c r="Q7" s="2">
-        <v>224.43066352675169</v>
+        <v>224.43554314482211</v>
       </c>
       <c r="R7" s="2">
-        <v>14.58013222184389</v>
+        <v>14.579880462257909</v>
       </c>
       <c r="S7" s="2">
-        <v>115.3639015864477</v>
+        <v>115.3621746660699</v>
       </c>
       <c r="T7" s="2">
-        <v>31.970270861081872</v>
+        <v>31.969748379848902</v>
       </c>
       <c r="U7" s="2">
-        <v>80.544255042551924</v>
+        <v>80.543033455574061</v>
       </c>
       <c r="V7" s="2">
-        <v>3.3853502076703279</v>
+        <v>3.3852849797202258</v>
       </c>
       <c r="W7" s="2">
         <v>0</v>
@@ -1335,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="2">
-        <v>260512.06386481129</v>
+        <v>260512.29820918181</v>
       </c>
       <c r="AD7" s="2">
         <v>0</v>
@@ -1353,14 +1354,14 @@
         <v>0</v>
       </c>
       <c r="AI7" s="2">
-        <v>192.36127740017821</v>
+        <v>192.35739094605151</v>
       </c>
       <c r="AJ7" s="2">
         <v>0</v>
       </c>
       <c r="AK7" s="2">
         <f t="shared" si="0"/>
-        <v>275175.86499999987</v>
+        <v>275175.86499999999</v>
       </c>
       <c r="AL7" s="2"/>
     </row>
@@ -1369,67 +1370,67 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1027.50715378568</v>
+        <v>1027.5171624563491</v>
       </c>
       <c r="C8" s="2">
-        <v>639.09639569335559</v>
+        <v>639.10237573707184</v>
       </c>
       <c r="D8" s="2">
-        <v>47860.568832735662</v>
+        <v>47860.901702001313</v>
       </c>
       <c r="E8" s="2">
-        <v>13502.77344154526</v>
+        <v>13502.903392175</v>
       </c>
       <c r="F8" s="2">
-        <v>1820.8626329533531</v>
+        <v>1820.8797499169059</v>
       </c>
       <c r="G8" s="2">
-        <v>2460.2726567581499</v>
+        <v>2460.2920498378598</v>
       </c>
       <c r="H8" s="2">
-        <v>24229.45761819067</v>
+        <v>24229.749695954459</v>
       </c>
       <c r="I8" s="2">
-        <v>1167.4083408238821</v>
+        <v>1167.4169373893931</v>
       </c>
       <c r="J8" s="2">
-        <v>1804.311862923528</v>
+        <v>1804.3256227095089</v>
       </c>
       <c r="K8" s="2">
-        <v>904.56332291591286</v>
+        <v>904.57055848777748</v>
       </c>
       <c r="L8" s="2">
-        <v>584.56932868199522</v>
+        <v>584.57397330964318</v>
       </c>
       <c r="M8" s="2">
-        <v>5069.2080715403563</v>
+        <v>5069.2554122416477</v>
       </c>
       <c r="N8" s="2">
-        <v>2641.8093225548669</v>
+        <v>2641.830067920906</v>
       </c>
       <c r="O8" s="2">
-        <v>486.90339339410531</v>
+        <v>486.90758878737591</v>
       </c>
       <c r="P8" s="2">
-        <v>616.24292752103543</v>
+        <v>616.24886171050923</v>
       </c>
       <c r="Q8" s="2">
-        <v>1209.8053375255879</v>
+        <v>1209.861424311737</v>
       </c>
       <c r="R8" s="2">
-        <v>557.60824624813904</v>
+        <v>557.61234450233428</v>
       </c>
       <c r="S8" s="2">
-        <v>8309.2857841132518</v>
+        <v>8309.3659498780053</v>
       </c>
       <c r="T8" s="2">
-        <v>868.8554325162994</v>
+        <v>868.86262169335703</v>
       </c>
       <c r="U8" s="2">
-        <v>770.08763793060439</v>
+        <v>770.09491556864975</v>
       </c>
       <c r="V8" s="2">
-        <v>74.292729979731192</v>
+        <v>74.293127389807921</v>
       </c>
       <c r="W8" s="2">
         <v>0</v>
@@ -1441,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="2">
-        <v>30966.018194538039</v>
+        <v>30964.770139924261</v>
       </c>
       <c r="AA8" s="2">
         <v>0</v>
@@ -1450,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="2">
-        <v>697.54685599227037</v>
+        <v>697.56465529983018</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>
@@ -1468,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="2">
-        <v>35166.911479138289</v>
+        <v>35167.066670796288</v>
       </c>
       <c r="AJ8" s="2">
         <v>0</v>
@@ -1484,67 +1485,67 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>621.88671249294555</v>
+        <v>621.90351072849353</v>
       </c>
       <c r="C9" s="2">
-        <v>98.058645853186476</v>
+        <v>98.061256960880911</v>
       </c>
       <c r="D9" s="2">
-        <v>11732.449792907621</v>
+        <v>11732.734022410719</v>
       </c>
       <c r="E9" s="2">
-        <v>7538.4565763533428</v>
+        <v>7538.659323081466</v>
       </c>
       <c r="F9" s="2">
-        <v>932.11100857366205</v>
+        <v>932.13586933701788</v>
       </c>
       <c r="G9" s="2">
-        <v>1144.556582160993</v>
+        <v>1144.5853717173909</v>
       </c>
       <c r="H9" s="2">
-        <v>2625.1739978098421</v>
+        <v>2625.2509828588582</v>
       </c>
       <c r="I9" s="2">
-        <v>1865.2521744728081</v>
+        <v>1865.298124513932</v>
       </c>
       <c r="J9" s="2">
-        <v>1940.058529565237</v>
+        <v>1940.1068312400821</v>
       </c>
       <c r="K9" s="2">
-        <v>4724.7331901388734</v>
+        <v>4724.8525838395717</v>
       </c>
       <c r="L9" s="2">
-        <v>1688.4786318270751</v>
+        <v>1688.5212090972191</v>
       </c>
       <c r="M9" s="2">
-        <v>11063.34564193903</v>
+        <v>11063.64003609121</v>
       </c>
       <c r="N9" s="2">
-        <v>3039.563968837288</v>
+        <v>3039.6403338611908</v>
       </c>
       <c r="O9" s="2">
-        <v>8076.3081646411702</v>
+        <v>8076.5172397364922</v>
       </c>
       <c r="P9" s="2">
-        <v>5939.9208327375736</v>
+        <v>5940.080620311066</v>
       </c>
       <c r="Q9" s="2">
-        <v>5071.3267127461986</v>
+        <v>5071.6494104188978</v>
       </c>
       <c r="R9" s="2">
-        <v>226.51893019827679</v>
+        <v>226.52450724354611</v>
       </c>
       <c r="S9" s="2">
-        <v>4638.9869707300368</v>
+        <v>4639.1118463637058</v>
       </c>
       <c r="T9" s="2">
-        <v>484.18369190727913</v>
+        <v>484.19606051557639</v>
       </c>
       <c r="U9" s="2">
-        <v>1011.5052213775321</v>
+        <v>1011.532250208907</v>
       </c>
       <c r="V9" s="2">
-        <v>838.91804597221892</v>
+        <v>838.93702243971552</v>
       </c>
       <c r="W9" s="2">
         <v>0</v>
@@ -1556,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="2">
-        <v>103640.1579854187</v>
+        <v>103637.7707511957</v>
       </c>
       <c r="AA9" s="2">
         <v>0</v>
@@ -1583,14 +1584,14 @@
         <v>0</v>
       </c>
       <c r="AI9" s="2">
-        <v>11199.29499133904</v>
+        <v>11199.537835828351</v>
       </c>
       <c r="AJ9" s="2">
         <v>0</v>
       </c>
       <c r="AK9" s="2">
         <f t="shared" si="0"/>
-        <v>190141.24699999992</v>
+        <v>190141.247</v>
       </c>
       <c r="AL9" s="2"/>
     </row>
@@ -1599,67 +1600,67 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>198.84414968417411</v>
+        <v>198.8463449250917</v>
       </c>
       <c r="C10" s="2">
-        <v>15.68195025349816</v>
+        <v>15.68211736515109</v>
       </c>
       <c r="D10" s="2">
-        <v>4110.5764793146427</v>
+        <v>4110.6104090502877</v>
       </c>
       <c r="E10" s="2">
-        <v>5858.7030859602582</v>
+        <v>5858.7670821673482</v>
       </c>
       <c r="F10" s="2">
-        <v>372.04515672696851</v>
+        <v>372.04913751553221</v>
       </c>
       <c r="G10" s="2">
-        <v>408.49249115399073</v>
+        <v>408.49624183659768</v>
       </c>
       <c r="H10" s="2">
-        <v>1500.5825507428069</v>
+        <v>1500.602589424891</v>
       </c>
       <c r="I10" s="2">
-        <v>1289.9899196975341</v>
+        <v>1290.0010949795319</v>
       </c>
       <c r="J10" s="2">
-        <v>13092.19107998947</v>
+        <v>13092.307932133859</v>
       </c>
       <c r="K10" s="2">
-        <v>6994.8106576340724</v>
+        <v>6994.8756970699014</v>
       </c>
       <c r="L10" s="2">
-        <v>816.52537721987051</v>
+        <v>816.53292571781537</v>
       </c>
       <c r="M10" s="2">
-        <v>15067.921085398209</v>
+        <v>15068.08138022266</v>
       </c>
       <c r="N10" s="2">
-        <v>2235.406040374482</v>
+        <v>2235.4264987783172</v>
       </c>
       <c r="O10" s="2">
-        <v>2566.2359274942119</v>
+        <v>2566.2613736610988</v>
       </c>
       <c r="P10" s="2">
-        <v>550.39980088139907</v>
+        <v>550.40581614767996</v>
       </c>
       <c r="Q10" s="2">
-        <v>2302.8460958024339</v>
+        <v>2302.9558482923098</v>
       </c>
       <c r="R10" s="2">
-        <v>77.245474310966017</v>
+        <v>77.246142405152639</v>
       </c>
       <c r="S10" s="2">
-        <v>3605.3066043252211</v>
+        <v>3605.346071648537</v>
       </c>
       <c r="T10" s="2">
-        <v>2392.3807149225931</v>
+        <v>2392.4036185763011</v>
       </c>
       <c r="U10" s="2">
-        <v>535.6853124120895</v>
+        <v>535.6910708570739</v>
       </c>
       <c r="V10" s="2">
-        <v>156.374004409305</v>
+        <v>156.37504406450341</v>
       </c>
       <c r="W10" s="2">
         <v>0</v>
@@ -1671,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="2">
-        <v>32959.318263188092</v>
+        <v>32958.03269172513</v>
       </c>
       <c r="AA10" s="2">
         <v>0</v>
@@ -1680,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="2">
-        <v>19335.757760130771</v>
+        <v>19336.276273680051</v>
       </c>
       <c r="AD10" s="2">
         <v>0</v>
@@ -1698,14 +1699,14 @@
         <v>0</v>
       </c>
       <c r="AI10" s="2">
-        <v>8154.3355263729372</v>
+        <v>8154.3821061551744</v>
       </c>
       <c r="AJ10" s="2">
         <v>0</v>
       </c>
       <c r="AK10" s="2">
         <f t="shared" si="0"/>
-        <v>124597.65550839998</v>
+        <v>124597.6555084</v>
       </c>
       <c r="AL10" s="2"/>
     </row>
@@ -1714,67 +1715,67 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1231.0855684578401</v>
+        <v>1231.1105614279129</v>
       </c>
       <c r="C11" s="2">
-        <v>191.84858058953361</v>
+        <v>191.85240180357999</v>
       </c>
       <c r="D11" s="2">
-        <v>18623.970466059</v>
+        <v>18624.296679599462</v>
       </c>
       <c r="E11" s="2">
-        <v>5024.6372876635123</v>
+        <v>5024.7387091305191</v>
       </c>
       <c r="F11" s="2">
-        <v>2048.9971257127472</v>
+        <v>2049.0380263696379</v>
       </c>
       <c r="G11" s="2">
-        <v>5255.0250576278177</v>
+        <v>5255.121977693213</v>
       </c>
       <c r="H11" s="2">
-        <v>2433.5768856559289</v>
+        <v>2433.6319222607221</v>
       </c>
       <c r="I11" s="2">
-        <v>3166.8339082401631</v>
+        <v>3166.8906725269699</v>
       </c>
       <c r="J11" s="2">
-        <v>1426.4983963867669</v>
+        <v>1426.52433993401</v>
       </c>
       <c r="K11" s="2">
-        <v>28545.35544384825</v>
+        <v>28545.885239581301</v>
       </c>
       <c r="L11" s="2">
-        <v>20126.733766125959</v>
+        <v>20127.106235568801</v>
       </c>
       <c r="M11" s="2">
-        <v>5154.2809715825697</v>
+        <v>5154.3835402802297</v>
       </c>
       <c r="N11" s="2">
-        <v>4988.9022493647826</v>
+        <v>4988.9941126695339</v>
       </c>
       <c r="O11" s="2">
-        <v>1699.3458120038811</v>
+        <v>1699.378400880661</v>
       </c>
       <c r="P11" s="2">
-        <v>3701.4023579199988</v>
+        <v>3701.4770909548711</v>
       </c>
       <c r="Q11" s="2">
-        <v>1997.5968498516891</v>
+        <v>1997.710555861393</v>
       </c>
       <c r="R11" s="2">
-        <v>302.20501841828218</v>
+        <v>302.21043106598091</v>
       </c>
       <c r="S11" s="2">
-        <v>3092.042339705456</v>
+        <v>3092.1048254613929</v>
       </c>
       <c r="T11" s="2">
-        <v>350.68233686785783</v>
+        <v>350.68894201573659</v>
       </c>
       <c r="U11" s="2">
-        <v>261.01003568854281</v>
+        <v>261.01525882264758</v>
       </c>
       <c r="V11" s="2">
-        <v>130.89217220940901</v>
+        <v>130.8942547089423</v>
       </c>
       <c r="W11" s="2">
         <v>0</v>
@@ -1786,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="2">
-        <v>74023.910888894898</v>
+        <v>74021.709144178123</v>
       </c>
       <c r="AA11" s="2">
         <v>0</v>
@@ -1813,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="2">
-        <v>4687.9314811251261</v>
+        <v>4688.0016772043527</v>
       </c>
       <c r="AJ11" s="2">
         <v>0</v>
@@ -1829,67 +1830,67 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>66.998511206742009</v>
+        <v>67.000276105632054</v>
       </c>
       <c r="C12" s="2">
-        <v>7.7852762540049207</v>
+        <v>7.785478349281119</v>
       </c>
       <c r="D12" s="2">
-        <v>3815.2072703008721</v>
+        <v>3815.297143467471</v>
       </c>
       <c r="E12" s="2">
-        <v>9595.4105743140444</v>
+        <v>9595.6622199287467</v>
       </c>
       <c r="F12" s="2">
-        <v>564.52877907411994</v>
+        <v>564.54345800378985</v>
       </c>
       <c r="G12" s="2">
-        <v>782.95265024572143</v>
+        <v>782.97182012900305</v>
       </c>
       <c r="H12" s="2">
-        <v>1526.899722209751</v>
+        <v>1526.94347754111</v>
       </c>
       <c r="I12" s="2">
-        <v>11076.24836789863</v>
+        <v>11076.513814542461</v>
       </c>
       <c r="J12" s="2">
-        <v>1261.920113735752</v>
+        <v>1261.950687096258</v>
       </c>
       <c r="K12" s="2">
-        <v>7303.321663971532</v>
+        <v>7303.5013298231406</v>
       </c>
       <c r="L12" s="2">
-        <v>8015.9388493317128</v>
+        <v>8016.1356164454646</v>
       </c>
       <c r="M12" s="2">
-        <v>7647.6000578002904</v>
+        <v>7647.798440349824</v>
       </c>
       <c r="N12" s="2">
-        <v>1739.2325212949961</v>
+        <v>1739.2750530243941</v>
       </c>
       <c r="O12" s="2">
-        <v>2242.0965609608629</v>
+        <v>2242.1531023539792</v>
       </c>
       <c r="P12" s="2">
-        <v>3966.4389914462531</v>
+        <v>3966.543036114907</v>
       </c>
       <c r="Q12" s="2">
-        <v>2139.3673669319178</v>
+        <v>2139.5020666594351</v>
       </c>
       <c r="R12" s="2">
-        <v>72.369412549861536</v>
+        <v>72.371145890706742</v>
       </c>
       <c r="S12" s="2">
-        <v>5904.7875625730476</v>
+        <v>5904.9425594656404</v>
       </c>
       <c r="T12" s="2">
-        <v>400.47546829411931</v>
+        <v>400.48543048668131</v>
       </c>
       <c r="U12" s="2">
-        <v>420.00869193100209</v>
+        <v>420.01963400857329</v>
       </c>
       <c r="V12" s="2">
-        <v>185.7665661718512</v>
+        <v>185.7706438969403</v>
       </c>
       <c r="W12" s="2">
         <v>0</v>
@@ -1901,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="2">
-        <v>131885.21649845771</v>
+        <v>131882.0903956253</v>
       </c>
       <c r="AA12" s="2">
         <v>0</v>
@@ -1910,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="2">
-        <v>31030.04169416651</v>
+        <v>31031.348645302889</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -1928,14 +1929,14 @@
         <v>0</v>
       </c>
       <c r="AI12" s="2">
-        <v>366.24682887876128</v>
+        <v>366.2545253883842</v>
       </c>
       <c r="AJ12" s="2">
         <v>0</v>
       </c>
       <c r="AK12" s="2">
         <f t="shared" si="0"/>
-        <v>232016.86000000007</v>
+        <v>232016.86000000002</v>
       </c>
       <c r="AL12" s="2"/>
     </row>
@@ -1944,67 +1945,67 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>1288.9071322762891</v>
+        <v>1288.9052526435351</v>
       </c>
       <c r="C13" s="2">
-        <v>375.54215506695391</v>
+        <v>375.5414633136549</v>
       </c>
       <c r="D13" s="2">
-        <v>62102.272446272051</v>
+        <v>62102.008882023183</v>
       </c>
       <c r="E13" s="2">
-        <v>14785.709037746359</v>
+        <v>14785.68574952609</v>
       </c>
       <c r="F13" s="2">
-        <v>4433.9835011469049</v>
+        <v>4433.975526305062</v>
       </c>
       <c r="G13" s="2">
-        <v>19852.171912844489</v>
+        <v>19852.106072458799</v>
       </c>
       <c r="H13" s="2">
-        <v>13757.007171438059</v>
+        <v>13757.01894170714</v>
       </c>
       <c r="I13" s="2">
-        <v>4959.8627189000699</v>
+        <v>4959.8436967553216</v>
       </c>
       <c r="J13" s="2">
-        <v>11747.78109213477</v>
+        <v>11747.739117726071</v>
       </c>
       <c r="K13" s="2">
-        <v>14571.85164144165</v>
+        <v>14571.80501064451</v>
       </c>
       <c r="L13" s="2">
-        <v>12060.0341445289</v>
+        <v>12059.994905493581</v>
       </c>
       <c r="M13" s="2">
-        <v>30186.49281770438</v>
+        <v>30186.436665806159</v>
       </c>
       <c r="N13" s="2">
-        <v>5924.1753533921183</v>
+        <v>5924.1555292440762</v>
       </c>
       <c r="O13" s="2">
-        <v>4699.8335221830293</v>
+        <v>4699.8213846111476</v>
       </c>
       <c r="P13" s="2">
-        <v>2958.79961850564</v>
+        <v>2958.7949749126979</v>
       </c>
       <c r="Q13" s="2">
-        <v>4801.9715535024861</v>
+        <v>4802.1403942704083</v>
       </c>
       <c r="R13" s="2">
-        <v>632.87714708169437</v>
+        <v>632.87471093651118</v>
       </c>
       <c r="S13" s="2">
-        <v>9098.7738517014659</v>
+        <v>9098.7597366582904</v>
       </c>
       <c r="T13" s="2">
-        <v>2285.1836474079928</v>
+        <v>2285.1769638810219</v>
       </c>
       <c r="U13" s="2">
-        <v>2190.1273111129508</v>
+        <v>2190.1234813679198</v>
       </c>
       <c r="V13" s="2">
-        <v>196.13314234874619</v>
+        <v>196.131995018704</v>
       </c>
       <c r="W13" s="2">
         <v>0</v>
@@ -2016,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="2">
-        <v>9499.740209989357</v>
+        <v>9499.2509496900075</v>
       </c>
       <c r="AA13" s="2">
         <v>0</v>
@@ -2025,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="2">
-        <v>78561.583198016902</v>
+        <v>78562.708025770582</v>
       </c>
       <c r="AD13" s="2">
         <v>0</v>
@@ -2043,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="2">
-        <v>27277.402598856781</v>
+        <v>27277.21749483559</v>
       </c>
       <c r="AJ13" s="2">
         <v>0</v>
@@ -2059,7 +2060,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>95.042687579368589</v>
+        <v>94.892953497882814</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -2077,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>580.79086994503677</v>
+        <v>579.87721037095343</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -2104,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>2830.098077576271</v>
+        <v>2825.7428993094099</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -2131,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="Z14" s="2">
-        <v>2342.7633139109489</v>
+        <v>2338.9553730155631</v>
       </c>
       <c r="AA14" s="2">
         <v>0</v>
       </c>
       <c r="AB14" s="2">
-        <v>154163.0540788596</v>
+        <v>154172.33532227291</v>
       </c>
       <c r="AC14" s="2">
         <v>0</v>
@@ -2158,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="2">
-        <v>34.622972128762648</v>
+        <v>34.568241533309717</v>
       </c>
       <c r="AJ14" s="2">
         <v>0</v>
@@ -2174,67 +2175,67 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>3.455140421625384</v>
+        <v>3.4522014648296802</v>
       </c>
       <c r="C15" s="2">
-        <v>0.70768635229550614</v>
+        <v>0.70708412003768861</v>
       </c>
       <c r="D15" s="2">
-        <v>627.6322773002106</v>
+        <v>627.0966637545049</v>
       </c>
       <c r="E15" s="2">
-        <v>348.50237939770312</v>
+        <v>348.20590117848059</v>
       </c>
       <c r="F15" s="2">
-        <v>38.440629509341584</v>
+        <v>38.407918681583382</v>
       </c>
       <c r="G15" s="2">
-        <v>52.01561766859129</v>
+        <v>51.971276393841613</v>
       </c>
       <c r="H15" s="2">
-        <v>51.51385425159377</v>
+        <v>51.47015544979493</v>
       </c>
       <c r="I15" s="2">
-        <v>76.908450967006416</v>
+        <v>76.842849670590596</v>
       </c>
       <c r="J15" s="2">
-        <v>77.731560355338843</v>
+        <v>77.665277331750474</v>
       </c>
       <c r="K15" s="2">
-        <v>276.64045623469531</v>
+        <v>276.40466328552139</v>
       </c>
       <c r="L15" s="2">
-        <v>88.363689783872658</v>
+        <v>88.288368755258901</v>
       </c>
       <c r="M15" s="2">
-        <v>290.7638072077591</v>
+        <v>290.5163655609025</v>
       </c>
       <c r="N15" s="2">
-        <v>9.5652142270981511</v>
+        <v>9.5570599723671954</v>
       </c>
       <c r="O15" s="2">
-        <v>45.954185977863801</v>
+        <v>45.915045536778301</v>
       </c>
       <c r="P15" s="2">
-        <v>15.40575966524545</v>
+        <v>15.392653751908149</v>
       </c>
       <c r="Q15" s="2">
-        <v>75.804267753665229</v>
+        <v>75.742561850480328</v>
       </c>
       <c r="R15" s="2">
-        <v>6.983994612332606</v>
+        <v>6.9780373129337478</v>
       </c>
       <c r="S15" s="2">
-        <v>214.4600795825545</v>
+        <v>214.27763902064109</v>
       </c>
       <c r="T15" s="2">
-        <v>9.9965083421802508</v>
+        <v>9.9879906241562288</v>
       </c>
       <c r="U15" s="2">
-        <v>21.25686496996725</v>
+        <v>21.238777626155869</v>
       </c>
       <c r="V15" s="2">
-        <v>7.2007822574513476</v>
+        <v>7.1946256472282988</v>
       </c>
       <c r="W15" s="2">
         <v>0</v>
@@ -2246,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="Z15" s="2">
-        <v>59206.06755285868</v>
+        <v>59152.746222853661</v>
       </c>
       <c r="AA15" s="2">
         <v>0</v>
       </c>
       <c r="AB15" s="2">
-        <v>70599.723801720422</v>
+        <v>70655.231258402535</v>
       </c>
       <c r="AC15" s="2">
         <v>0</v>
@@ -2273,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="2">
-        <v>229.03443858254079</v>
+        <v>228.83840175410941</v>
       </c>
       <c r="AJ15" s="2">
         <v>0</v>
@@ -2289,67 +2290,67 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>134.42652744449379</v>
+        <v>134.29681645958061</v>
       </c>
       <c r="C16" s="2">
-        <v>12.208244242171711</v>
+        <v>12.19645957066173</v>
       </c>
       <c r="D16" s="2">
-        <v>1695.521802615538</v>
+        <v>1693.8810392523269</v>
       </c>
       <c r="E16" s="2">
-        <v>675.06447838065014</v>
+        <v>674.4130157337022</v>
       </c>
       <c r="F16" s="2">
-        <v>162.7020505638572</v>
+        <v>162.54500062444239</v>
       </c>
       <c r="G16" s="2">
-        <v>433.94115735615588</v>
+        <v>433.52163282212689</v>
       </c>
       <c r="H16" s="2">
-        <v>204.29033543561681</v>
+        <v>204.09368364400851</v>
       </c>
       <c r="I16" s="2">
-        <v>631.86298644801525</v>
+        <v>631.25178812815489</v>
       </c>
       <c r="J16" s="2">
-        <v>179.93627448819271</v>
+        <v>179.76227005515611</v>
       </c>
       <c r="K16" s="2">
-        <v>539.53250052032001</v>
+        <v>539.01095543532278</v>
       </c>
       <c r="L16" s="2">
-        <v>171.70864574940759</v>
+        <v>171.54265248789591</v>
       </c>
       <c r="M16" s="2">
-        <v>806.29355347727483</v>
+        <v>805.51522016373258</v>
       </c>
       <c r="N16" s="2">
-        <v>101.17552385904951</v>
+        <v>101.07770663197191</v>
       </c>
       <c r="O16" s="2">
-        <v>264.46266279350681</v>
+        <v>264.20718017275573</v>
       </c>
       <c r="P16" s="2">
-        <v>804.71692133493923</v>
+        <v>803.94034372470514</v>
       </c>
       <c r="Q16" s="2">
-        <v>280.12676738770199</v>
+        <v>279.8667152636674</v>
       </c>
       <c r="R16" s="2">
-        <v>22.218320477169112</v>
+        <v>22.1968284793485</v>
       </c>
       <c r="S16" s="2">
-        <v>415.41863216852431</v>
+        <v>415.01774739347468</v>
       </c>
       <c r="T16" s="2">
-        <v>43.932750050504218</v>
+        <v>43.89029405433525</v>
       </c>
       <c r="U16" s="2">
-        <v>65.109225354909512</v>
+        <v>65.04638120870635</v>
       </c>
       <c r="V16" s="2">
-        <v>13.35642979303476</v>
+        <v>13.34348329548965</v>
       </c>
       <c r="W16" s="2">
         <v>0</v>
@@ -2361,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Z16" s="2">
-        <v>58553.791960827642</v>
+        <v>58494.364721747159</v>
       </c>
       <c r="AA16" s="2">
         <v>0</v>
       </c>
       <c r="AB16" s="2">
-        <v>100692.90017432719</v>
+        <v>100760.5379626848</v>
       </c>
       <c r="AC16" s="2">
         <v>0</v>
@@ -2388,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="2">
-        <v>847.18307490417612</v>
+        <v>846.36110096649566</v>
       </c>
       <c r="AJ16" s="2">
         <v>0</v>
@@ -2404,67 +2405,67 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>499.67882879226647</v>
+        <v>499.68115376178082</v>
       </c>
       <c r="C17" s="2">
-        <v>58.512199913028589</v>
+        <v>58.512449714962109</v>
       </c>
       <c r="D17" s="2">
-        <v>5706.6028775418672</v>
+        <v>5706.6135328559276</v>
       </c>
       <c r="E17" s="2">
-        <v>1419.0782037994261</v>
+        <v>1419.084641011942</v>
       </c>
       <c r="F17" s="2">
-        <v>496.09345484161662</v>
+        <v>496.09559432803383</v>
       </c>
       <c r="G17" s="2">
-        <v>795.24958860811239</v>
+        <v>795.25181109089692</v>
       </c>
       <c r="H17" s="2">
-        <v>3428.6512275275518</v>
+        <v>3428.6751143941651</v>
       </c>
       <c r="I17" s="2">
-        <v>789.7263974556472</v>
+        <v>789.72819488273012</v>
       </c>
       <c r="J17" s="2">
-        <v>1755.6630875370779</v>
+        <v>1755.6675438755219</v>
       </c>
       <c r="K17" s="2">
-        <v>1069.7454257749</v>
+        <v>1069.748539988301</v>
       </c>
       <c r="L17" s="2">
-        <v>814.96428656404237</v>
+        <v>814.96661539767661</v>
       </c>
       <c r="M17" s="2">
-        <v>3680.0513487026919</v>
+        <v>3680.0669928736961</v>
       </c>
       <c r="N17" s="2">
-        <v>296.53817220780633</v>
+        <v>296.53899211149621</v>
       </c>
       <c r="O17" s="2">
-        <v>1205.245830001601</v>
+        <v>1205.2500829314361</v>
       </c>
       <c r="P17" s="2">
-        <v>1050.4317846741269</v>
+        <v>1050.436555550823</v>
       </c>
       <c r="Q17" s="2">
-        <v>2867.8872088421058</v>
+        <v>2868.00557281287</v>
       </c>
       <c r="R17" s="2">
-        <v>78.72066340791433</v>
+        <v>78.720841467020392</v>
       </c>
       <c r="S17" s="2">
-        <v>873.26699188298335</v>
+        <v>873.27097391905454</v>
       </c>
       <c r="T17" s="2">
-        <v>303.18230361160971</v>
+        <v>303.18326970563328</v>
       </c>
       <c r="U17" s="2">
-        <v>190.42042372627071</v>
+        <v>190.4212544545581</v>
       </c>
       <c r="V17" s="2">
-        <v>99.123452012178419</v>
+        <v>99.123477929501121</v>
       </c>
       <c r="W17" s="2">
         <v>0</v>
@@ -2476,16 +2477,16 @@
         <v>0</v>
       </c>
       <c r="Z17" s="2">
-        <v>84282.616957468155</v>
+        <v>84278.791238386359</v>
       </c>
       <c r="AA17" s="2">
         <v>0</v>
       </c>
       <c r="AB17" s="2">
-        <v>2193.6404156256349</v>
+        <v>2197.2443164474162</v>
       </c>
       <c r="AC17" s="2">
-        <v>674.66202229252144</v>
+        <v>674.67580504596197</v>
       </c>
       <c r="AD17" s="2">
         <v>0</v>
@@ -2503,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="2">
-        <v>2092.7408047888389</v>
+        <v>2092.739392662229</v>
       </c>
       <c r="AJ17" s="2">
         <v>0</v>
@@ -2519,67 +2520,67 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>43.255025505170359</v>
+        <v>43.255188250468088</v>
       </c>
       <c r="C18" s="2">
-        <v>2.439146574159254</v>
+        <v>2.4391548154516078</v>
       </c>
       <c r="D18" s="2">
-        <v>8254.7189305212123</v>
+        <v>8254.7269931111059</v>
       </c>
       <c r="E18" s="2">
-        <v>457.72310001389542</v>
+        <v>457.72476874649391</v>
       </c>
       <c r="F18" s="2">
-        <v>383.21369610686781</v>
+        <v>383.2150075409603</v>
       </c>
       <c r="G18" s="2">
-        <v>539.81413285812641</v>
+        <v>539.81516078956452</v>
       </c>
       <c r="H18" s="2">
-        <v>341.12894685471667</v>
+        <v>341.13101968062801</v>
       </c>
       <c r="I18" s="2">
-        <v>127.021786273876</v>
+        <v>127.0219622684801</v>
       </c>
       <c r="J18" s="2">
-        <v>592.51039696859038</v>
+        <v>592.51137330669656</v>
       </c>
       <c r="K18" s="2">
-        <v>1098.814220462908</v>
+        <v>1098.816440843462</v>
       </c>
       <c r="L18" s="2">
-        <v>92.578314702526313</v>
+        <v>92.578496815502433</v>
       </c>
       <c r="M18" s="2">
-        <v>2748.3692976951852</v>
+        <v>2748.378533883013</v>
       </c>
       <c r="N18" s="2">
-        <v>610.57814268417712</v>
+        <v>610.57928718336723</v>
       </c>
       <c r="O18" s="2">
-        <v>663.48500618651826</v>
+        <v>663.48675660297522</v>
       </c>
       <c r="P18" s="2">
-        <v>524.13437026547876</v>
+        <v>524.13628406694829</v>
       </c>
       <c r="Q18" s="2">
-        <v>631.67474240370416</v>
+        <v>631.70025049368826</v>
       </c>
       <c r="R18" s="2">
-        <v>2100.891625558847</v>
+        <v>2100.8945068158232</v>
       </c>
       <c r="S18" s="2">
-        <v>281.67191462337661</v>
+        <v>281.67294820771622</v>
       </c>
       <c r="T18" s="2">
-        <v>249.9441667052545</v>
+        <v>249.9447405883831</v>
       </c>
       <c r="U18" s="2">
-        <v>771.07175963568113</v>
+        <v>771.07443689946138</v>
       </c>
       <c r="V18" s="2">
-        <v>51.05427351375851</v>
+        <v>51.054241400675537</v>
       </c>
       <c r="W18" s="2">
         <v>0</v>
@@ -2591,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="2">
-        <v>754.98527489435889</v>
+        <v>754.95033268185387</v>
       </c>
       <c r="AA18" s="2">
         <v>0</v>
@@ -2603,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="AD18" s="2">
-        <v>6856.7757390294337</v>
+        <v>6856.7549942198384</v>
       </c>
       <c r="AE18" s="2">
         <v>0</v>
@@ -2618,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="2">
-        <v>5666.3463592621783</v>
+        <v>5666.3374900874423</v>
       </c>
       <c r="AJ18" s="2">
         <v>0</v>
@@ -2634,67 +2635,67 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>884.08961114804197</v>
+        <v>884.10471277648708</v>
       </c>
       <c r="C19" s="2">
-        <v>21.671757619061459</v>
+        <v>21.67211949090964</v>
       </c>
       <c r="D19" s="2">
-        <v>26582.9375112786</v>
+        <v>26583.317535278042</v>
       </c>
       <c r="E19" s="2">
-        <v>2722.8768067158639</v>
+        <v>2722.9229998368191</v>
       </c>
       <c r="F19" s="2">
-        <v>459.12234023295662</v>
+        <v>459.13002653531407</v>
       </c>
       <c r="G19" s="2">
-        <v>3156.037249717122</v>
+        <v>3156.0852950381891</v>
       </c>
       <c r="H19" s="2">
-        <v>1093.2407446602631</v>
+        <v>1093.2619486112401</v>
       </c>
       <c r="I19" s="2">
-        <v>5208.4456055955079</v>
+        <v>5208.5221937756314</v>
       </c>
       <c r="J19" s="2">
-        <v>3103.834757572236</v>
+        <v>3103.881212262349</v>
       </c>
       <c r="K19" s="2">
-        <v>361.04003507885523</v>
+        <v>361.04557335411607</v>
       </c>
       <c r="L19" s="2">
-        <v>235.82130003628561</v>
+        <v>235.8249048474228</v>
       </c>
       <c r="M19" s="2">
-        <v>1984.062250365607</v>
+        <v>1984.0953439284251</v>
       </c>
       <c r="N19" s="2">
-        <v>634.54847138617697</v>
+        <v>634.55811241432775</v>
       </c>
       <c r="O19" s="2">
-        <v>740.49740640515313</v>
+        <v>740.50922274385141</v>
       </c>
       <c r="P19" s="2">
-        <v>4370.5934872601101</v>
+        <v>4370.6676582146993</v>
       </c>
       <c r="Q19" s="2">
-        <v>1899.030069302893</v>
+        <v>1899.1320496305709</v>
       </c>
       <c r="R19" s="2">
-        <v>409.03728095128957</v>
+        <v>409.0432899182332</v>
       </c>
       <c r="S19" s="2">
-        <v>1675.593657842403</v>
+        <v>1675.6221237645491</v>
       </c>
       <c r="T19" s="2">
-        <v>182.8195212514226</v>
+        <v>182.82237600099501</v>
       </c>
       <c r="U19" s="2">
-        <v>170.32705037772851</v>
+        <v>170.32991037804879</v>
       </c>
       <c r="V19" s="2">
-        <v>28.067509878829469</v>
+        <v>28.067866056687699</v>
       </c>
       <c r="W19" s="2">
         <v>0</v>
@@ -2706,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="2">
-        <v>34708.746634100193</v>
+        <v>34707.602510709432</v>
       </c>
       <c r="AA19" s="2">
         <v>0</v>
@@ -2718,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="AD19" s="2">
-        <v>5859.4273115693686</v>
+        <v>5859.487625945043</v>
       </c>
       <c r="AE19" s="2">
         <v>0</v>
@@ -2733,14 +2734,14 @@
         <v>0</v>
       </c>
       <c r="AI19" s="2">
-        <v>13762.269388654</v>
+        <v>13762.4311474886</v>
       </c>
       <c r="AJ19" s="2">
         <v>0</v>
       </c>
       <c r="AK19" s="2">
         <f t="shared" si="0"/>
-        <v>110254.13775899998</v>
+        <v>110254.13775899999</v>
       </c>
       <c r="AL19" s="2"/>
     </row>
@@ -2749,67 +2750,67 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>23.322685841984558</v>
+        <v>23.32283349482999</v>
       </c>
       <c r="C20" s="2">
-        <v>4.1804797338870996</v>
+        <v>4.1805045959013416</v>
       </c>
       <c r="D20" s="2">
-        <v>1523.1443600328821</v>
+        <v>1523.1497597714281</v>
       </c>
       <c r="E20" s="2">
-        <v>573.78928866151159</v>
+        <v>573.79285426442709</v>
       </c>
       <c r="F20" s="2">
-        <v>141.15629082397791</v>
+        <v>141.15713643594449</v>
       </c>
       <c r="G20" s="2">
-        <v>121.4426916673583</v>
+        <v>121.4432348362551</v>
       </c>
       <c r="H20" s="2">
-        <v>411.66553190724608</v>
+        <v>411.66909066713413</v>
       </c>
       <c r="I20" s="2">
-        <v>125.67370600157641</v>
+        <v>125.67420290895301</v>
       </c>
       <c r="J20" s="2">
-        <v>3244.852748989038</v>
+        <v>3244.8664299430652</v>
       </c>
       <c r="K20" s="2">
-        <v>2818.4144608838692</v>
+        <v>2818.4273948970558</v>
       </c>
       <c r="L20" s="2">
-        <v>191.5979186361165</v>
+        <v>191.59878763364779</v>
       </c>
       <c r="M20" s="2">
-        <v>4330.432074135023</v>
+        <v>4330.4577493258157</v>
       </c>
       <c r="N20" s="2">
-        <v>938.46236446102068</v>
+        <v>938.46653391313191</v>
       </c>
       <c r="O20" s="2">
-        <v>724.35118854200459</v>
+        <v>724.35495996395696</v>
       </c>
       <c r="P20" s="2">
-        <v>203.69254902678639</v>
+        <v>203.69381594645091</v>
       </c>
       <c r="Q20" s="2">
-        <v>384.78360093378512</v>
+        <v>384.80012746117251</v>
       </c>
       <c r="R20" s="2">
-        <v>32.023885125526121</v>
+        <v>32.024011294728233</v>
       </c>
       <c r="S20" s="2">
-        <v>353.09628795830298</v>
+        <v>353.09849052694608</v>
       </c>
       <c r="T20" s="2">
-        <v>1486.9748485897751</v>
+        <v>1486.982081904066</v>
       </c>
       <c r="U20" s="2">
-        <v>203.59162789178851</v>
+        <v>203.5928576952588</v>
       </c>
       <c r="V20" s="2">
-        <v>33.024677140973182</v>
+        <v>33.024741188963652</v>
       </c>
       <c r="W20" s="2">
         <v>0</v>
@@ -2821,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="2">
-        <v>2322.5997929999639</v>
+        <v>2322.4982635711772</v>
       </c>
       <c r="AA20" s="2">
         <v>0</v>
@@ -2833,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="2">
-        <v>15446.925781451961</v>
+        <v>15446.91872134159</v>
       </c>
       <c r="AE20" s="2">
         <v>0</v>
@@ -2848,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="2">
-        <v>4244.452650163641</v>
+        <v>4244.4569080180963</v>
       </c>
       <c r="AJ20" s="2">
         <v>0</v>
@@ -2864,67 +2865,67 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>33.720810428496087</v>
+        <v>33.720948060632658</v>
       </c>
       <c r="C21" s="2">
-        <v>18.543196513214479</v>
+        <v>18.543265082614621</v>
       </c>
       <c r="D21" s="2">
-        <v>7987.7006577349694</v>
+        <v>7987.7110080650618</v>
       </c>
       <c r="E21" s="2">
-        <v>196.52880278220539</v>
+        <v>196.52958197654371</v>
       </c>
       <c r="F21" s="2">
-        <v>459.03096833776078</v>
+        <v>459.03268569183831</v>
       </c>
       <c r="G21" s="2">
-        <v>8633.5273935968271</v>
+        <v>8633.5465884400892</v>
       </c>
       <c r="H21" s="2">
-        <v>148.6351841154891</v>
+        <v>148.63613470151299</v>
       </c>
       <c r="I21" s="2">
-        <v>176.43506271801621</v>
+        <v>176.43536347014299</v>
       </c>
       <c r="J21" s="2">
-        <v>641.26765141509679</v>
+        <v>641.26891269738064</v>
       </c>
       <c r="K21" s="2">
-        <v>112.8632311334151</v>
+        <v>112.86349520683871</v>
       </c>
       <c r="L21" s="2">
-        <v>139.8083413995524</v>
+        <v>139.80866102690371</v>
       </c>
       <c r="M21" s="2">
-        <v>1584.358108342215</v>
+        <v>1584.363938250523</v>
       </c>
       <c r="N21" s="2">
-        <v>436.2612065854471</v>
+        <v>436.2621635289342</v>
       </c>
       <c r="O21" s="2">
-        <v>246.00461521758339</v>
+        <v>246.00534272077169</v>
       </c>
       <c r="P21" s="2">
-        <v>184.59820844406929</v>
+        <v>184.59894137572911</v>
       </c>
       <c r="Q21" s="2">
-        <v>37.239436468660763</v>
+        <v>37.240952141851167</v>
       </c>
       <c r="R21" s="2">
-        <v>181.88230804437271</v>
+        <v>181.88261551704059</v>
       </c>
       <c r="S21" s="2">
-        <v>120.93915329294749</v>
+        <v>120.93963566132059</v>
       </c>
       <c r="T21" s="2">
-        <v>153.73389477978171</v>
+        <v>153.73429680993451</v>
       </c>
       <c r="U21" s="2">
-        <v>692.9550668473413</v>
+        <v>692.95769397330753</v>
       </c>
       <c r="V21" s="2">
-        <v>2.3284098352144791</v>
+        <v>2.3284091135449141</v>
       </c>
       <c r="W21" s="2">
         <v>0</v>
@@ -2936,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="2">
-        <v>307.59624911603481</v>
+        <v>307.58211108949979</v>
       </c>
       <c r="AA21" s="2">
         <v>0</v>
@@ -2948,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="2">
-        <v>12012.11267924924</v>
+        <v>12012.080169793529</v>
       </c>
       <c r="AE21" s="2">
         <v>0</v>
@@ -2963,14 +2964,14 @@
         <v>0</v>
       </c>
       <c r="AI21" s="2">
-        <v>1827.985438002039</v>
+        <v>1827.9831600044399</v>
       </c>
       <c r="AJ21" s="2">
         <v>0</v>
       </c>
       <c r="AK21" s="2">
         <f t="shared" si="0"/>
-        <v>36336.056074399996</v>
+        <v>36336.056074399989</v>
       </c>
       <c r="AL21" s="2"/>
     </row>
@@ -2979,67 +2980,67 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>28.188160785380919</v>
+        <v>28.188162273557332</v>
       </c>
       <c r="C22" s="2">
-        <v>2.9075322032789108</v>
+        <v>2.9075312411664251</v>
       </c>
       <c r="D22" s="2">
-        <v>853.98750623296712</v>
+        <v>853.98517234470785</v>
       </c>
       <c r="E22" s="2">
-        <v>262.75391853413691</v>
+        <v>262.75390173366338</v>
       </c>
       <c r="F22" s="2">
-        <v>52.650823689414061</v>
+        <v>52.650808554210407</v>
       </c>
       <c r="G22" s="2">
-        <v>89.291425076824609</v>
+        <v>89.291263867725647</v>
       </c>
       <c r="H22" s="2">
-        <v>254.6737621420076</v>
+        <v>254.67436487752019</v>
       </c>
       <c r="I22" s="2">
-        <v>114.79333696087321</v>
+        <v>114.79307016852189</v>
       </c>
       <c r="J22" s="2">
-        <v>98.137347022416137</v>
+        <v>98.137144677089168</v>
       </c>
       <c r="K22" s="2">
-        <v>474.49649420627929</v>
+        <v>474.49569280401619</v>
       </c>
       <c r="L22" s="2">
-        <v>65.32536668099641</v>
+        <v>65.325252849235056</v>
       </c>
       <c r="M22" s="2">
-        <v>647.03283619692274</v>
+        <v>647.03261034528009</v>
       </c>
       <c r="N22" s="2">
-        <v>132.66591419099981</v>
+        <v>132.66567072160259</v>
       </c>
       <c r="O22" s="2">
-        <v>497.79724353392692</v>
+        <v>497.79671017116999</v>
       </c>
       <c r="P22" s="2">
-        <v>94.309942984616782</v>
+        <v>94.309937485542847</v>
       </c>
       <c r="Q22" s="2">
-        <v>121.906246713973</v>
+        <v>121.91071724557609</v>
       </c>
       <c r="R22" s="2">
-        <v>5.9430491000871397</v>
+        <v>5.9430352039796892</v>
       </c>
       <c r="S22" s="2">
-        <v>161.69251520418891</v>
+        <v>161.69250870361381</v>
       </c>
       <c r="T22" s="2">
-        <v>26.882394675183789</v>
+        <v>26.882356673833979</v>
       </c>
       <c r="U22" s="2">
-        <v>49.580947008541763</v>
+        <v>49.580935231514189</v>
       </c>
       <c r="V22" s="2">
-        <v>19.105224092837521</v>
+        <v>19.105141201992829</v>
       </c>
       <c r="W22" s="2">
         <v>0</v>
@@ -3078,14 +3079,14 @@
         <v>0</v>
       </c>
       <c r="AI22" s="2">
-        <v>0.2160551641448967</v>
+        <v>0.2160540244792514</v>
       </c>
       <c r="AJ22" s="2">
         <v>0</v>
       </c>
       <c r="AK22" s="2">
         <f t="shared" si="0"/>
-        <v>4054.3380423999988</v>
+        <v>4054.3380423999979</v>
       </c>
       <c r="AL22" s="2"/>
     </row>
@@ -3094,67 +3095,67 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>6546.4752376871584</v>
+        <v>6546.476630917633</v>
       </c>
       <c r="C23" s="2">
-        <v>864.98373665405165</v>
+        <v>864.98358884871459</v>
       </c>
       <c r="D23" s="2">
-        <v>192724.8420108587</v>
+        <v>192724.3461484249</v>
       </c>
       <c r="E23" s="2">
-        <v>49948.136793812839</v>
+        <v>49948.141593185319</v>
       </c>
       <c r="F23" s="2">
-        <v>12815.885920199389</v>
+        <v>12815.88428698492</v>
       </c>
       <c r="G23" s="2">
-        <v>86614.139464657332</v>
+        <v>86613.996949783861</v>
       </c>
       <c r="H23" s="2">
-        <v>32847.741594315121</v>
+        <v>32847.824591492361</v>
       </c>
       <c r="I23" s="2">
-        <v>34584.38337508413</v>
+        <v>34584.30853159535</v>
       </c>
       <c r="J23" s="2">
-        <v>23960.792105760542</v>
+        <v>23960.746536364601</v>
       </c>
       <c r="K23" s="2">
-        <v>44511.979523832488</v>
+        <v>44511.91146830254</v>
       </c>
       <c r="L23" s="2">
-        <v>16088.919203179339</v>
+        <v>16088.893742327011</v>
       </c>
       <c r="M23" s="2">
-        <v>107569.192451679</v>
+        <v>107569.1721178273</v>
       </c>
       <c r="N23" s="2">
-        <v>76963.385266715748</v>
+        <v>76963.256339185958</v>
       </c>
       <c r="O23" s="2">
-        <v>78529.37485987808</v>
+        <v>78529.303286724346</v>
       </c>
       <c r="P23" s="2">
-        <v>64844.28231734057</v>
+        <v>64844.288913206852</v>
       </c>
       <c r="Q23" s="2">
-        <v>27216.154067465512</v>
+        <v>27217.156490561651</v>
       </c>
       <c r="R23" s="2">
-        <v>3879.9430150611538</v>
+        <v>3879.9345638271839</v>
       </c>
       <c r="S23" s="2">
-        <v>30736.896001439462</v>
+        <v>30736.899684449869</v>
       </c>
       <c r="T23" s="2">
-        <v>10549.431006636471</v>
+        <v>10549.417781997379</v>
       </c>
       <c r="U23" s="2">
-        <v>10540.46328555999</v>
+        <v>10540.462468629081</v>
       </c>
       <c r="V23" s="2">
-        <v>1071.36276218279</v>
+        <v>1071.3582853630669</v>
       </c>
       <c r="W23" s="2">
         <v>0</v>
@@ -3209,52 +3210,52 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>24569.864427339191</v>
+        <v>24569.885887467481</v>
       </c>
       <c r="C24" s="2">
-        <v>1184.683582840298</v>
+        <v>1184.6841630210261</v>
       </c>
       <c r="D24" s="2">
-        <v>273518.81048614578</v>
+        <v>273518.28743777558</v>
       </c>
       <c r="E24" s="2">
-        <v>35842.248151356907</v>
+        <v>35842.275273131643</v>
       </c>
       <c r="F24" s="2">
-        <v>24110.975991268959</v>
+        <v>24110.988846626431</v>
       </c>
       <c r="G24" s="2">
-        <v>16022.072832710919</v>
+        <v>16022.057054343089</v>
       </c>
       <c r="H24" s="2">
-        <v>27080.243447393841</v>
+        <v>27080.32976125511</v>
       </c>
       <c r="I24" s="2">
-        <v>13958.97203850824</v>
+        <v>13958.951051563779</v>
       </c>
       <c r="J24" s="2">
-        <v>34613.600645819723</v>
+        <v>34613.557682666302</v>
       </c>
       <c r="K24" s="2">
-        <v>56988.663803988231</v>
+        <v>56988.614319827153</v>
       </c>
       <c r="L24" s="2">
-        <v>120144.421909579</v>
+        <v>120144.3111486407</v>
       </c>
       <c r="M24" s="2">
-        <v>52870.541061630269</v>
+        <v>52870.565994359058</v>
       </c>
       <c r="N24" s="2">
-        <v>44792.432196878573</v>
+        <v>44792.386751825718</v>
       </c>
       <c r="O24" s="2">
-        <v>13830.5031236494</v>
+        <v>13830.49965484622</v>
       </c>
       <c r="P24" s="2">
-        <v>23956.63619758088</v>
+        <v>23956.65446044139</v>
       </c>
       <c r="Q24" s="2">
-        <v>16547.524106409961</v>
+        <v>16548.14451530933</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -3315,7 +3316,7 @@
       </c>
       <c r="AK24" s="2">
         <f t="shared" si="0"/>
-        <v>780032.19400310004</v>
+        <v>780032.19400310027</v>
       </c>
       <c r="AL24" s="2"/>
     </row>
@@ -3372,19 +3373,19 @@
         <v>0</v>
       </c>
       <c r="R25" s="2">
-        <v>3705.7206505729282</v>
+        <v>3705.7145846252338</v>
       </c>
       <c r="S25" s="2">
-        <v>22080.229989238422</v>
+        <v>22080.24458638197</v>
       </c>
       <c r="T25" s="2">
-        <v>13143.09598566412</v>
+        <v>13143.086623616369</v>
       </c>
       <c r="U25" s="2">
-        <v>7042.2915253780729</v>
+        <v>7042.2947913639591</v>
       </c>
       <c r="V25" s="2">
-        <v>669.47984604645103</v>
+        <v>669.47741091246712</v>
       </c>
       <c r="W25" s="2">
         <v>0</v>
@@ -3430,7 +3431,7 @@
       </c>
       <c r="AK25" s="2">
         <f t="shared" si="0"/>
-        <v>46640.817996899998</v>
+        <v>46640.817996900005</v>
       </c>
       <c r="AL25" s="2"/>
     </row>
@@ -3502,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="2">
-        <v>913408.76400000008</v>
+        <v>913408.76399999985</v>
       </c>
       <c r="X26" s="2">
         <v>261977.6999999999</v>
@@ -3545,7 +3546,7 @@
       </c>
       <c r="AK26" s="2">
         <f t="shared" si="0"/>
-        <v>1175386.4639999999</v>
+        <v>1175386.4639999997</v>
       </c>
       <c r="AL26" s="2"/>
     </row>
@@ -3620,10 +3621,10 @@
         <v>0</v>
       </c>
       <c r="X27" s="2">
-        <v>518054.49400310032</v>
+        <v>518054.49400310009</v>
       </c>
       <c r="Y27" s="2">
-        <v>46640.817996899998</v>
+        <v>46640.81799689999</v>
       </c>
       <c r="Z27" s="2">
         <v>0</v>
@@ -3660,7 +3661,7 @@
       </c>
       <c r="AK27" s="2">
         <f t="shared" si="0"/>
-        <v>564695.31200000027</v>
+        <v>564695.31200000003</v>
       </c>
       <c r="AL27" s="2"/>
     </row>
@@ -3744,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="AA28" s="2">
-        <v>98630.169232975459</v>
+        <v>109351.7330000002</v>
       </c>
       <c r="AB28" s="2">
         <v>0</v>
       </c>
       <c r="AC28" s="2">
-        <v>10721.563767024731</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="2">
         <v>0</v>
@@ -3775,7 +3776,7 @@
       </c>
       <c r="AK28" s="2">
         <f t="shared" si="0"/>
-        <v>462297.98</v>
+        <v>462297.98000000004</v>
       </c>
       <c r="AL28" s="2"/>
     </row>
@@ -3856,13 +3857,13 @@
         <v>0</v>
       </c>
       <c r="Z29" s="2">
-        <v>143083.5672500548</v>
+        <v>143229.21048012731</v>
       </c>
       <c r="AA29" s="2">
-        <v>353715.62325572473</v>
+        <v>349677.42552444187</v>
       </c>
       <c r="AB29" s="2">
-        <v>133640.26798292049</v>
+        <v>126819.22348413079</v>
       </c>
       <c r="AC29" s="2">
         <v>0</v>
@@ -3890,7 +3891,7 @@
       </c>
       <c r="AK29" s="2">
         <f t="shared" si="0"/>
-        <v>630439.45848869998</v>
+        <v>619725.85948869993</v>
       </c>
       <c r="AL29" s="2"/>
     </row>
@@ -3974,10 +3975,10 @@
         <v>0</v>
       </c>
       <c r="AA30" s="2">
-        <v>40175.241511300002</v>
+        <v>33491.875475558023</v>
       </c>
       <c r="AB30" s="2">
-        <v>0</v>
+        <v>6683.3660357419858</v>
       </c>
       <c r="AC30" s="2">
         <v>0</v>
@@ -4005,7 +4006,7 @@
       </c>
       <c r="AK30" s="2">
         <f t="shared" si="0"/>
-        <v>40175.241511300002</v>
+        <v>40175.24151130001</v>
       </c>
       <c r="AL30" s="2"/>
     </row>
@@ -4014,67 +4015,67 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>969.2656286488758</v>
+        <v>969.2655228952558</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
       </c>
       <c r="D31" s="2">
-        <v>56953.140166914221</v>
+        <v>56952.975297192999</v>
       </c>
       <c r="E31" s="2">
-        <v>8070.7940421959802</v>
+        <v>8070.7922194776011</v>
       </c>
       <c r="F31" s="2">
-        <v>2846.7049509052181</v>
+        <v>2846.7036716955408</v>
       </c>
       <c r="G31" s="2">
-        <v>18554.865516363388</v>
+        <v>18554.82901286686</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <v>9873.1313504378231</v>
+        <v>9873.1068057244065</v>
       </c>
       <c r="J31" s="2">
-        <v>3999.142250531278</v>
+        <v>3999.1333574005921</v>
       </c>
       <c r="K31" s="2">
-        <v>7011.8891430021658</v>
+        <v>7011.8761650189454</v>
       </c>
       <c r="L31" s="2">
-        <v>32446.72907302868</v>
+        <v>32446.667280296551</v>
       </c>
       <c r="M31" s="2">
-        <v>4413.7564843744231</v>
+        <v>4413.7542291269938</v>
       </c>
       <c r="N31" s="2">
-        <v>3.3457891190256892</v>
+        <v>3.3457824371238152</v>
       </c>
       <c r="O31" s="2">
-        <v>125.4303272241925</v>
+        <v>125.43017252508319</v>
       </c>
       <c r="P31" s="2">
-        <v>172.9356713935708</v>
+        <v>172.93563331143471</v>
       </c>
       <c r="Q31" s="2">
-        <v>8729.2623506319524</v>
+        <v>8729.5810557876212</v>
       </c>
       <c r="R31" s="2">
-        <v>500.21784286966869</v>
+        <v>500.21659226867058</v>
       </c>
       <c r="S31" s="2">
-        <v>4966.5747923302642</v>
+        <v>4966.5737885624776</v>
       </c>
       <c r="T31" s="2">
-        <v>669.8537996181476</v>
+        <v>669.85274425286491</v>
       </c>
       <c r="U31" s="2">
-        <v>349.50016782830153</v>
+        <v>349.50002822654028</v>
       </c>
       <c r="V31" s="2">
-        <v>2.588652582786624</v>
+        <v>2.588640932429493</v>
       </c>
       <c r="W31" s="2">
         <v>0</v>
@@ -4359,13 +4360,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>543.66311618718908</v>
+        <v>543.66425913655507</v>
       </c>
       <c r="C34" s="2">
-        <v>6068.5391546889186</v>
+        <v>6068.5495841600368</v>
       </c>
       <c r="D34" s="2">
-        <v>16860.097923829559</v>
+        <v>16860.086401326069</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -4383,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <v>1.0681680993926921E-2</v>
+        <v>1.0681680862056391E-2</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
@@ -4404,16 +4405,16 @@
         <v>0</v>
       </c>
       <c r="Q34" s="2">
-        <v>0.82822237746652205</v>
+        <v>0.82825444745887455</v>
       </c>
       <c r="R34" s="2">
-        <v>284.00757951138422</v>
+        <v>284.00749751859462</v>
       </c>
       <c r="S34" s="2">
         <v>0</v>
       </c>
       <c r="T34" s="2">
-        <v>9.3217244898973241E-3</v>
+        <v>9.3217304175783958E-3</v>
       </c>
       <c r="U34" s="2">
         <v>0</v>
@@ -4465,7 +4466,7 @@
       </c>
       <c r="AK34" s="2">
         <f t="shared" si="0"/>
-        <v>23757.155999999999</v>
+        <v>23757.155999999995</v>
       </c>
       <c r="AL34" s="2"/>
     </row>
@@ -4589,67 +4590,67 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>11584.13386524037</v>
+        <v>11584.13709054772</v>
       </c>
       <c r="C36" s="2">
-        <v>140610.0288110316</v>
+        <v>140610.01400853929</v>
       </c>
       <c r="D36" s="2">
-        <v>427766.31993547041</v>
+        <v>427765.24739669089</v>
       </c>
       <c r="E36" s="2">
-        <v>2377.5102481411482</v>
+        <v>2377.5106325612578</v>
       </c>
       <c r="F36" s="2">
-        <v>177.26219165374519</v>
+        <v>177.26218069297559</v>
       </c>
       <c r="G36" s="2">
-        <v>35.481155418566281</v>
+        <v>35.481099365555053</v>
       </c>
       <c r="H36" s="2">
-        <v>24450.449158915999</v>
+        <v>24450.51254248152</v>
       </c>
       <c r="I36" s="2">
-        <v>18839.86671068153</v>
+        <v>18839.827175589871</v>
       </c>
       <c r="J36" s="2">
-        <v>6291.7424533027151</v>
+        <v>6291.7309002237671</v>
       </c>
       <c r="K36" s="2">
-        <v>3969.1734230369748</v>
+        <v>3969.1676148534611</v>
       </c>
       <c r="L36" s="2">
-        <v>1759.7010045407389</v>
+        <v>1759.6983352404479</v>
       </c>
       <c r="M36" s="2">
-        <v>37079.63771191339</v>
+        <v>37079.633135270888</v>
       </c>
       <c r="N36" s="2">
-        <v>657.30176899368996</v>
+        <v>657.30071101580415</v>
       </c>
       <c r="O36" s="2">
-        <v>2315.6773483716979</v>
+        <v>2315.6753897350868</v>
       </c>
       <c r="P36" s="2">
-        <v>361.8321073427814</v>
+        <v>361.83216788511851</v>
       </c>
       <c r="Q36" s="2">
-        <v>6781.8748416384487</v>
+        <v>6782.1250760100656</v>
       </c>
       <c r="R36" s="2">
-        <v>10409.94342543343</v>
+        <v>10409.921433572819</v>
       </c>
       <c r="S36" s="2">
-        <v>1463.0632878486731</v>
+        <v>1463.0635591398759</v>
       </c>
       <c r="T36" s="2">
-        <v>3255.0465217929782</v>
+        <v>3255.0426548468231</v>
       </c>
       <c r="U36" s="2">
-        <v>7572.184877564111</v>
+        <v>7572.1847874460054</v>
       </c>
       <c r="V36" s="2">
-        <v>74.231418010877235</v>
+        <v>74.231112695649401</v>
       </c>
       <c r="W36" s="2">
         <v>0</v>
@@ -4670,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="2">
-        <v>53770.544733656097</v>
+        <v>53771.407995595182</v>
       </c>
       <c r="AD36" s="2">
         <v>0</v>
@@ -4695,7 +4696,7 @@
       </c>
       <c r="AK36" s="2">
         <f t="shared" si="0"/>
-        <v>761603.00700000022</v>
+        <v>761603.00699999998</v>
       </c>
       <c r="AL36" s="2"/>
     </row>
@@ -4709,7 +4710,7 @@
       </c>
       <c r="C37" s="2">
         <f t="shared" ref="C37:AJ37" si="1">SUM(C2:C36)</f>
-        <v>151003.99800000002</v>
+        <v>151003.99799999999</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="1"/>
@@ -4737,15 +4738,15 @@
       </c>
       <c r="J37" s="2">
         <f t="shared" si="1"/>
-        <v>124597.6555084</v>
+        <v>124597.65550840003</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>188464.76500000001</v>
+        <v>188464.76500000004</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="1"/>
-        <v>232016.86</v>
+        <v>232016.86000000002</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="1"/>
@@ -4753,11 +4754,11 @@
       </c>
       <c r="N37" s="2">
         <f t="shared" si="1"/>
-        <v>160046.37199999997</v>
+        <v>160046.372</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="1"/>
-        <v>132374.12900000004</v>
+        <v>132374.12900000007</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="1"/>
@@ -4765,39 +4766,39 @@
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="1"/>
-        <v>116722.49395759999</v>
+        <v>116722.49395759997</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="1"/>
-        <v>33844.200369300001</v>
+        <v>33844.200369300008</v>
       </c>
       <c r="S37" s="2">
         <f t="shared" si="1"/>
-        <v>110254.13775899998</v>
+        <v>110254.13775899996</v>
       </c>
       <c r="T37" s="2">
         <f t="shared" si="1"/>
-        <v>39883.651491599994</v>
+        <v>39883.651491600001</v>
       </c>
       <c r="U37" s="2">
         <f t="shared" si="1"/>
-        <v>36336.056074399996</v>
+        <v>36336.056074399989</v>
       </c>
       <c r="V37" s="2">
         <f t="shared" si="1"/>
-        <v>4054.3380423999979</v>
+        <v>4054.3380423999988</v>
       </c>
       <c r="W37" s="2">
         <f t="shared" si="1"/>
-        <v>913408.76400000008</v>
+        <v>913408.76399999985</v>
       </c>
       <c r="X37" s="2">
         <f t="shared" si="1"/>
-        <v>780032.19400310027</v>
+        <v>780032.19400310004</v>
       </c>
       <c r="Y37" s="2">
         <f t="shared" si="1"/>
-        <v>46640.817996899998</v>
+        <v>46640.81799689999</v>
       </c>
       <c r="Z37" s="2">
         <f t="shared" si="1"/>
@@ -4805,15 +4806,15 @@
       </c>
       <c r="AA37" s="2">
         <f t="shared" si="1"/>
-        <v>564695.31200000027</v>
+        <v>564695.31200000015</v>
       </c>
       <c r="AB37" s="2">
         <f t="shared" si="1"/>
-        <v>462297.98</v>
+        <v>462297.98000000004</v>
       </c>
       <c r="AC37" s="2">
         <f t="shared" si="1"/>
-        <v>630439.45848869986</v>
+        <v>619725.85948870005</v>
       </c>
       <c r="AD37" s="2">
         <f t="shared" si="1"/>

--- a/RAS 전처리 SAM/미시 사회계정행렬(최종) RAS 적용.xlsx
+++ b/RAS 전처리 SAM/미시 사회계정행렬(최종) RAS 적용.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/RAS 전처리 SAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC12103-732A-C64C-BB84-87DDCCDE0ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C2B663-277B-D14F-AE3D-7C5370CA6558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35580" yWindow="-40" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL37"/>
+  <dimension ref="A1:AL41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -4846,6 +4846,12 @@
       </c>
       <c r="AK37" s="2"/>
     </row>
+    <row r="40" spans="1:38">
+      <c r="AC40" s="2"/>
+    </row>
+    <row r="41" spans="1:38">
+      <c r="X41" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
